--- a/Lab1.2/data_analysis_lab.xlsx
+++ b/Lab1.2/data_analysis_lab.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10319"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mk/PycharmProjects/p4ne/Lab1.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BE32D6CB-3605-5843-BC7E-73703F757A7A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="24900" windowHeight="20020" tabRatio="500"/>
+    <workbookView xWindow="120" yWindow="-20480" windowWidth="29600" windowHeight="17920" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="B">Data!$F$4</definedName>
+    <definedName name="K">Data!$E$4</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,75 +32,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Годы</t>
-  </si>
-  <si>
-    <t>Отношения</t>
   </si>
   <si>
     <t>Активность</t>
   </si>
   <si>
-    <t>Комментарий</t>
+    <t>Температура</t>
   </si>
   <si>
-    <t>Проект «Союз-Аполлон»</t>
+    <t>https://www.ncdc.noaa.gov/cag/time-series/global/globe/land_ocean/1/12/1880-2016</t>
   </si>
   <si>
-    <t>Дипломатические отношения с США</t>
+    <t>Источник</t>
   </si>
   <si>
-    <t>Ввод войск в Афганистан</t>
+    <t>http://www.wdcb.ru/stp/data/solar.act/sunspot/</t>
   </si>
   <si>
-    <t>Перестройка</t>
-  </si>
-  <si>
-    <t>Источник http://www.wdcb.ru/stp/data/solar.act/sunspot/</t>
-  </si>
-  <si>
-    <t>Бомбардировки Югославии</t>
-  </si>
-  <si>
-    <t>Война в Грузии</t>
-  </si>
-  <si>
-    <t>Соглашение о сторительстве ГАЗ-а</t>
-  </si>
-  <si>
-    <t>Перелёт Чкалова</t>
-  </si>
-  <si>
-    <t>Cобытия на Украине</t>
-  </si>
-  <si>
-    <t>Эйфория от избрания Трампа</t>
-  </si>
-  <si>
-    <t>Признание США диктатуры Франко</t>
-  </si>
-  <si>
-    <t>Начало поставок по ленд-лизу</t>
-  </si>
-  <si>
-    <t>Открытие второго фронта</t>
-  </si>
-  <si>
-    <t>Начало холодной войны</t>
-  </si>
-  <si>
-    <t>Карибский кризис</t>
-  </si>
-  <si>
-    <t>Оттепель</t>
+    <t>Относит. температура</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -136,14 +102,10 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -154,14 +116,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -179,750 +144,18 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Отношения</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Data!$A$2:$A$118</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+            <c:strRef>
+              <c:f>Data!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1900.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1901.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1902.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1903.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1904.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1905.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1906.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1907.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1908.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1909.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1910.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1911.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1912.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1913.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1914.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1915.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1916.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1917.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1918.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1919.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1920.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1921.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1922.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1923.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1924.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1925.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1926.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1927.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1928.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1929.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1930.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1931.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1932.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1933.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1934.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1935.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1936.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1937.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1938.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1939.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1940.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1941.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1942.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1943.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1944.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1945.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1946.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1947.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1948.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1949.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1950.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1951.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1952.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1953.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1954.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1955.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1956.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1957.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1958.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1959.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1960.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1961.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1962.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1963.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1964.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1965.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1966.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1967.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1968.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1969.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1970.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1971.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1972.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1973.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1974.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1975.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1976.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1977.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1978.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1979.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1980.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1981.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1982.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1983.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1984.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1985.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1986.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1987.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1988.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1989.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1990.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1991.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1992.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1993.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1994.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1995.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1996.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1997.0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1998.0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1999.0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2000.0</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2001.0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2002.0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2003.0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>2004.0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>2005.0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2006.0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>2007.0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2008.0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>2009.0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>2010.0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>2011.0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>2012.0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>2013.0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>2014.0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>2015.0</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2016.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$B$2:$B$118</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
-                <c:pt idx="0">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>100.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Активность Солнца</c:v>
+                  <c:v>Относит. температура</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -936,724 +169,759 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>Data!$A$2:$A$118</c:f>
+              <c:f>Data!$C$2:$C$117</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="116"/>
                 <c:pt idx="0">
-                  <c:v>1900.0</c:v>
+                  <c:v>53.794325817530307</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1901.0</c:v>
+                  <c:v>43.39157831865009</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1902.0</c:v>
+                  <c:v>28.647304763326929</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1903.0</c:v>
+                  <c:v>15.876452142750395</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1904.0</c:v>
+                  <c:v>4.2473644915635305</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1905.0</c:v>
+                  <c:v>22.050440495744169</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1906.0</c:v>
+                  <c:v>32.721009407197243</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1907.0</c:v>
+                  <c:v>11.126146035538341</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1908.0</c:v>
+                  <c:v>1.3999999999998636</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1909.0</c:v>
+                  <c:v>3.3029416156487059</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1910.0</c:v>
+                  <c:v>9.9561893385098301</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1911.0</c:v>
+                  <c:v>2.3021352844555167</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1912.0</c:v>
+                  <c:v>17.01821711213961</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1913.0</c:v>
+                  <c:v>18.794295953411847</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1914.0</c:v>
+                  <c:v>43.701687322681892</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1915.0</c:v>
+                  <c:v>53.596983724055463</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1916.0</c:v>
+                  <c:v>22.064536359563817</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1917.0</c:v>
+                  <c:v>19.019829774525761</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1918.0</c:v>
+                  <c:v>33.989637150963063</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1919.0</c:v>
+                  <c:v>34.398417201731945</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1920.0</c:v>
+                  <c:v>33.693624010751137</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1921.0</c:v>
+                  <c:v>42.433059578915845</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1922.0</c:v>
+                  <c:v>30.888547110646641</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1923.0</c:v>
+                  <c:v>32.974734955950453</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1924.0</c:v>
+                  <c:v>28.323099895475707</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1925.0</c:v>
+                  <c:v>42.48944303419421</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1926.0</c:v>
+                  <c:v>53.963476183365628</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1927.0</c:v>
+                  <c:v>41.573211885918909</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1928.0</c:v>
+                  <c:v>38.359354935045531</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1929.0</c:v>
+                  <c:v>21.289263849484769</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1930.0</c:v>
+                  <c:v>49.227265939972995</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1931.0</c:v>
+                  <c:v>53.695654770792771</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1932.0</c:v>
+                  <c:v>46.901448409735849</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1933.0</c:v>
+                  <c:v>28.985605494997799</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1934.0</c:v>
+                  <c:v>49.058115574137673</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1935.0</c:v>
+                  <c:v>43.743974914140608</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1936.0</c:v>
+                  <c:v>47.380707779602744</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1937.0</c:v>
+                  <c:v>61.15236673137224</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1938.0</c:v>
+                  <c:v>59.305808571001762</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1939.0</c:v>
+                  <c:v>61.406092280125449</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1940.0</c:v>
+                  <c:v>76.714200388233394</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1941.0</c:v>
+                  <c:v>90.993310437509308</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1942.0</c:v>
+                  <c:v>85.044855905629447</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1943.0</c:v>
+                  <c:v>85.495923547857274</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1944.0</c:v>
+                  <c:v>104.6381066149022</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1945.0</c:v>
+                  <c:v>87.469344482604129</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1946.0</c:v>
+                  <c:v>62.801582798267873</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1947.0</c:v>
+                  <c:v>56.641690309093519</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1948.0</c:v>
+                  <c:v>56.500731670897267</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1949.0</c:v>
+                  <c:v>55.358966701508052</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1950.0</c:v>
+                  <c:v>40.586501418545595</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1951.0</c:v>
+                  <c:v>61.50476332686253</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1952.0</c:v>
+                  <c:v>66.86119157831854</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1953.0</c:v>
+                  <c:v>76.784679707331634</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1954.0</c:v>
+                  <c:v>46.943736001194566</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1955.0</c:v>
+                  <c:v>44.279617739286095</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1956.0</c:v>
+                  <c:v>35.314648350007474</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1957.0</c:v>
+                  <c:v>70.244198895027694</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1958.0</c:v>
+                  <c:v>78.800388233537205</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1959.0</c:v>
+                  <c:v>71.766552187546495</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1960.0</c:v>
+                  <c:v>66.240973570255392</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1961.0</c:v>
+                  <c:v>74.289711811258485</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1962.0</c:v>
+                  <c:v>75.882544422875753</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1963.0</c:v>
+                  <c:v>78.419799910407619</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1964.0</c:v>
+                  <c:v>42.29210094071982</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1965.0</c:v>
+                  <c:v>52.37064357174836</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1966.0</c:v>
+                  <c:v>60.165656263998699</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1967.0</c:v>
+                  <c:v>61.518859190682406</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1968.0</c:v>
+                  <c:v>59.193041660444806</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1969.0</c:v>
+                  <c:v>76.460474839480412</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1970.0</c:v>
+                  <c:v>68.609078691951709</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1971.0</c:v>
+                  <c:v>52.328355980289643</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1972.0</c:v>
+                  <c:v>67.086725399432453</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1973.0</c:v>
+                  <c:v>86.496729879050235</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1974.0</c:v>
+                  <c:v>53.230491264745297</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1975.0</c:v>
+                  <c:v>63.844676720919779</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1976.0</c:v>
+                  <c:v>52.201493205913039</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1977.0</c:v>
+                  <c:v>91.24703598626229</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1978.0</c:v>
+                  <c:v>79.195072420486667</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1979.0</c:v>
+                  <c:v>95.405315813050493</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1980.0</c:v>
+                  <c:v>100.53621024339259</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1981.0</c:v>
+                  <c:v>105.63891294609516</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1982.0</c:v>
+                  <c:v>88.949410183664213</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1983.0</c:v>
+                  <c:v>111.44640883977877</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1984.0</c:v>
+                  <c:v>84.36825444228748</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1985.0</c:v>
+                  <c:v>82.282066596983668</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1986.0</c:v>
+                  <c:v>95.729520680901942</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1987.0</c:v>
+                  <c:v>115.46373002837095</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1988.0</c:v>
+                  <c:v>116.32357772136788</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1989.0</c:v>
+                  <c:v>105.23013289532605</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1990.0</c:v>
+                  <c:v>124.3723159623712</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1991.0</c:v>
+                  <c:v>120.5241451396148</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1992.0</c:v>
+                  <c:v>99.605883231297412</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1993.0</c:v>
+                  <c:v>103.58091682843065</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1994.0</c:v>
+                  <c:v>111.4182171121397</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1995.0</c:v>
+                  <c:v>127.88218605345673</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1996.0</c:v>
+                  <c:v>108.86686576078819</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1997.0</c:v>
+                  <c:v>136.48066298342519</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1998.0</c:v>
+                  <c:v>152.78957742272655</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1999.0</c:v>
+                  <c:v>125.92286098252953</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2000.0</c:v>
+                  <c:v>123.44198895027625</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>2001.0</c:v>
+                  <c:v>140.51208003583702</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>2002.0</c:v>
+                  <c:v>148.26480513662818</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2003.0</c:v>
+                  <c:v>149.82944602060638</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2004.0</c:v>
+                  <c:v>144.88179781991948</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2005.0</c:v>
+                  <c:v>156.18668060325513</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>2006.0</c:v>
+                  <c:v>149.70258324622955</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>2007.0</c:v>
+                  <c:v>149.35018665073903</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2008.0</c:v>
+                  <c:v>139.75090338957739</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2009.0</c:v>
+                  <c:v>153.11378229057777</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>2010.0</c:v>
+                  <c:v>162.23380618187252</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>2011.0</c:v>
+                  <c:v>144.95227713901727</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2012.0</c:v>
+                  <c:v>151.32360758548589</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2013.0</c:v>
+                  <c:v>157.51169180229931</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2014.0</c:v>
+                  <c:v>167.78757652680292</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2015.0</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>2016.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Data!$C$2:$C$118</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="117"/>
-                <c:pt idx="0">
-                  <c:v>9.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>24.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>63.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>53.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>48.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43.9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>18.6</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>47.4</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>57.1</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>103.9</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>80.6</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>63.6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>37.6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>26.1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>14.2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.8</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>16.7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44.3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>63.9</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>77.8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>64.9</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>35.7</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>21.2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>11.1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.7</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>8.7</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36.1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>79.7</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>114.4</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>109.6</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>88.8</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>67.8</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>47.5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>30.6</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>16.3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>9.6</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>33.2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>92.6</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>151.6</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>136.3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>134.7</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>83.9</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>69.4</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>31.5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>13.9</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4.4</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>141.7</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>190.2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>184.8</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>159.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>112.3</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>53.9</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>37.6</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>27.9</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>10.2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>15.1</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>93.8</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>105.9</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>105.5</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>104.5</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>66.6</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>68.9</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>34.5</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>12.6</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>27.5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>92.5</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>155.4</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>154.6</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>140.4</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>115.9</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>66.6</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>45.9</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>17.9</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>13.4</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>29.4</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>100.2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>157.6</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>142.6</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>145.7</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>94.3</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>54.6</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>29.9</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>17.5</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>8.6</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>21.5</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>64.3</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>93.3</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>119.6</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>111.0</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>104.0</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>63.7</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>40.4</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>29.8</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>15.2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>16.5</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>55.7</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>57.7</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>64.9</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>52.6</c:v>
+                  <c:v>190.20000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A420-C744-B912-E077FF292251}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Data!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Активность</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Data!$D$2:$D$117</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="116"/>
+                <c:pt idx="0">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>47.4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>103.9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>80.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>63.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44.3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63.9</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>77.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>64.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>79.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>114.4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>109.6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>88.8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>67.8</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30.6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>33.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>92.6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>151.6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>136.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>134.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>83.9</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>69.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>141.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>190.2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>184.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>112.3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>53.9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>37.6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>27.9</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>15.1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>93.8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>105.9</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>105.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>104.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>66.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>155.4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>154.6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>140.4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>115.9</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>66.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45.9</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>29.4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>100.2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>157.6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>142.6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>145.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>94.3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>54.6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>29.9</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>17.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>64.3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>93.3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>119.6</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>63.7</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>29.8</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>15.2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>55.7</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>57.7</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>64.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>52.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A420-C744-B912-E077FF292251}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1708,7 +976,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-141320320"/>
@@ -1739,6 +1007,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1766,7 +1035,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-141294080"/>
@@ -1807,7 +1076,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2378,20 +1647,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>654050</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>177800</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2671,200 +1946,252 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G118"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="5"/>
-    <col min="4" max="4" width="26.1640625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="23.83203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1900</v>
       </c>
-      <c r="B2">
-        <v>50</v>
+      <c r="B2" s="5">
+        <v>13.832100000000001</v>
       </c>
       <c r="C2" s="5">
+        <v>53.794325817530307</v>
+      </c>
+      <c r="D2" s="3">
         <v>9.5</v>
       </c>
+      <c r="F2" s="3"/>
       <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1901</v>
       </c>
-      <c r="B3">
-        <v>50</v>
+      <c r="B3" s="5">
+        <v>13.7583</v>
       </c>
       <c r="C3" s="5">
+        <v>43.39157831865009</v>
+      </c>
+      <c r="D3" s="3">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F3" s="3"/>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1902</v>
       </c>
-      <c r="B4">
-        <v>50</v>
+      <c r="B4" s="5">
+        <v>13.653700000000001</v>
       </c>
       <c r="C4" s="5">
+        <v>28.647304763326929</v>
+      </c>
+      <c r="D4" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1903</v>
       </c>
-      <c r="B5">
-        <v>50</v>
+      <c r="B5" s="5">
+        <v>13.5631</v>
       </c>
       <c r="C5" s="5">
+        <v>15.876452142750395</v>
+      </c>
+      <c r="D5" s="3">
         <v>24.4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1904</v>
       </c>
-      <c r="B6">
-        <v>50</v>
+      <c r="B6" s="5">
+        <v>13.480600000000001</v>
       </c>
       <c r="C6" s="5">
+        <v>4.2473644915635305</v>
+      </c>
+      <c r="D6" s="3">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1905</v>
       </c>
-      <c r="B7">
-        <v>100</v>
+      <c r="B7" s="5">
+        <v>13.6069</v>
       </c>
       <c r="C7" s="5">
+        <v>22.050440495744169</v>
+      </c>
+      <c r="D7" s="3">
         <v>63.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1906</v>
       </c>
-      <c r="B8">
-        <v>100</v>
+      <c r="B8" s="5">
+        <v>13.682600000000001</v>
       </c>
       <c r="C8" s="5">
+        <v>32.721009407197243</v>
+      </c>
+      <c r="D8" s="3">
         <v>53.8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1907</v>
       </c>
-      <c r="B9">
-        <v>100</v>
+      <c r="B9" s="5">
+        <v>13.529400000000001</v>
       </c>
       <c r="C9" s="5">
+        <v>11.126146035538341</v>
+      </c>
+      <c r="D9" s="3">
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1908</v>
       </c>
-      <c r="B10">
-        <v>100</v>
+      <c r="B10" s="5">
+        <v>13.4604</v>
       </c>
       <c r="C10" s="5">
+        <v>1.3999999999998636</v>
+      </c>
+      <c r="D10" s="3">
         <v>48.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1909</v>
       </c>
-      <c r="B11">
-        <v>100</v>
+      <c r="B11" s="5">
+        <v>13.4739</v>
       </c>
       <c r="C11" s="5">
+        <v>3.3029416156487059</v>
+      </c>
+      <c r="D11" s="3">
         <v>43.9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1910</v>
       </c>
-      <c r="B12">
-        <v>100</v>
+      <c r="B12" s="5">
+        <v>13.521100000000001</v>
       </c>
       <c r="C12" s="5">
+        <v>9.9561893385098301</v>
+      </c>
+      <c r="D12" s="3">
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1911</v>
       </c>
-      <c r="B13">
-        <v>100</v>
+      <c r="B13" s="5">
+        <v>13.466799999999999</v>
       </c>
       <c r="C13" s="5">
+        <v>2.3021352844555167</v>
+      </c>
+      <c r="D13" s="3">
         <v>5.7</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1912</v>
       </c>
-      <c r="B14">
-        <v>100</v>
+      <c r="B14" s="5">
+        <v>13.571199999999999</v>
       </c>
       <c r="C14" s="5">
+        <v>17.01821711213961</v>
+      </c>
+      <c r="D14" s="3">
         <v>3.6</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1913</v>
       </c>
-      <c r="B15">
-        <v>100</v>
+      <c r="B15" s="5">
+        <v>13.5838</v>
       </c>
       <c r="C15" s="5">
+        <v>18.794295953411847</v>
+      </c>
+      <c r="D15" s="3">
         <v>1.4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1914</v>
       </c>
-      <c r="B16">
-        <v>100</v>
+      <c r="B16" s="5">
+        <v>13.7605</v>
       </c>
       <c r="C16" s="5">
+        <v>43.701687322681892</v>
+      </c>
+      <c r="D16" s="3">
         <v>9.6</v>
       </c>
     </row>
@@ -2872,10 +2199,13 @@
       <c r="A17">
         <v>1915</v>
       </c>
-      <c r="B17">
-        <v>100</v>
+      <c r="B17" s="5">
+        <v>13.8307</v>
       </c>
       <c r="C17" s="5">
+        <v>53.596983724055463</v>
+      </c>
+      <c r="D17" s="3">
         <v>47.4</v>
       </c>
     </row>
@@ -2883,10 +2213,13 @@
       <c r="A18">
         <v>1916</v>
       </c>
-      <c r="B18">
-        <v>100</v>
+      <c r="B18" s="5">
+        <v>13.606999999999999</v>
       </c>
       <c r="C18" s="5">
+        <v>22.064536359563817</v>
+      </c>
+      <c r="D18" s="3">
         <v>57.1</v>
       </c>
     </row>
@@ -2894,10 +2227,13 @@
       <c r="A19">
         <v>1917</v>
       </c>
-      <c r="B19">
-        <v>100</v>
+      <c r="B19" s="5">
+        <v>13.5854</v>
       </c>
       <c r="C19" s="5">
+        <v>19.019829774525761</v>
+      </c>
+      <c r="D19" s="3">
         <v>103.9</v>
       </c>
     </row>
@@ -2905,10 +2241,13 @@
       <c r="A20">
         <v>1918</v>
       </c>
-      <c r="B20">
-        <v>50</v>
+      <c r="B20" s="5">
+        <v>13.691599999999999</v>
       </c>
       <c r="C20" s="5">
+        <v>33.989637150963063</v>
+      </c>
+      <c r="D20" s="3">
         <v>80.599999999999994</v>
       </c>
     </row>
@@ -2916,10 +2255,13 @@
       <c r="A21">
         <v>1919</v>
       </c>
-      <c r="B21">
-        <v>50</v>
+      <c r="B21" s="5">
+        <v>13.6945</v>
       </c>
       <c r="C21" s="5">
+        <v>34.398417201731945</v>
+      </c>
+      <c r="D21" s="3">
         <v>63.6</v>
       </c>
     </row>
@@ -2927,10 +2269,13 @@
       <c r="A22">
         <v>1920</v>
       </c>
-      <c r="B22">
-        <v>50</v>
+      <c r="B22" s="5">
+        <v>13.689500000000001</v>
       </c>
       <c r="C22" s="5">
+        <v>33.693624010751137</v>
+      </c>
+      <c r="D22" s="3">
         <v>37.6</v>
       </c>
     </row>
@@ -2938,10 +2283,13 @@
       <c r="A23">
         <v>1921</v>
       </c>
-      <c r="B23">
-        <v>50</v>
+      <c r="B23" s="5">
+        <v>13.7515</v>
       </c>
       <c r="C23" s="5">
+        <v>42.433059578915845</v>
+      </c>
+      <c r="D23" s="3">
         <v>26.1</v>
       </c>
     </row>
@@ -2949,10 +2297,13 @@
       <c r="A24">
         <v>1922</v>
       </c>
-      <c r="B24">
-        <v>50</v>
+      <c r="B24" s="5">
+        <v>13.669600000000001</v>
       </c>
       <c r="C24" s="5">
+        <v>30.888547110646641</v>
+      </c>
+      <c r="D24" s="3">
         <v>14.2</v>
       </c>
     </row>
@@ -2960,10 +2311,13 @@
       <c r="A25">
         <v>1923</v>
       </c>
-      <c r="B25">
-        <v>50</v>
+      <c r="B25" s="5">
+        <v>13.6844</v>
       </c>
       <c r="C25" s="5">
+        <v>32.974734955950453</v>
+      </c>
+      <c r="D25" s="3">
         <v>5.8</v>
       </c>
     </row>
@@ -2971,10 +2325,13 @@
       <c r="A26">
         <v>1924</v>
       </c>
-      <c r="B26">
-        <v>50</v>
+      <c r="B26" s="5">
+        <v>13.651400000000001</v>
       </c>
       <c r="C26" s="5">
+        <v>28.323099895475707</v>
+      </c>
+      <c r="D26" s="3">
         <v>16.7</v>
       </c>
     </row>
@@ -2982,10 +2339,13 @@
       <c r="A27">
         <v>1925</v>
       </c>
-      <c r="B27">
-        <v>50</v>
+      <c r="B27" s="5">
+        <v>13.751899999999999</v>
       </c>
       <c r="C27" s="5">
+        <v>42.48944303419421</v>
+      </c>
+      <c r="D27" s="3">
         <v>44.3</v>
       </c>
     </row>
@@ -2993,10 +2353,13 @@
       <c r="A28">
         <v>1926</v>
       </c>
-      <c r="B28">
-        <v>50</v>
+      <c r="B28" s="5">
+        <v>13.833299999999999</v>
       </c>
       <c r="C28" s="5">
+        <v>53.963476183365628</v>
+      </c>
+      <c r="D28" s="3">
         <v>63.9</v>
       </c>
     </row>
@@ -3004,10 +2367,13 @@
       <c r="A29">
         <v>1927</v>
       </c>
-      <c r="B29">
-        <v>50</v>
+      <c r="B29" s="5">
+        <v>13.7454</v>
       </c>
       <c r="C29" s="5">
+        <v>41.573211885918909</v>
+      </c>
+      <c r="D29" s="3">
         <v>69</v>
       </c>
     </row>
@@ -3015,35 +2381,41 @@
       <c r="A30">
         <v>1928</v>
       </c>
-      <c r="B30">
-        <v>50</v>
+      <c r="B30" s="5">
+        <v>13.7226</v>
       </c>
       <c r="C30" s="5">
+        <v>38.359354935045531</v>
+      </c>
+      <c r="D30" s="3">
         <v>77.8</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1929</v>
       </c>
-      <c r="B31">
-        <v>100</v>
+      <c r="B31" s="5">
+        <v>13.6015</v>
       </c>
       <c r="C31" s="5">
+        <v>21.289263849484769</v>
+      </c>
+      <c r="D31" s="3">
         <v>64.900000000000006</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1930</v>
       </c>
-      <c r="B32">
-        <v>100</v>
+      <c r="B32" s="5">
+        <v>13.7997</v>
       </c>
       <c r="C32" s="5">
+        <v>49.227265939972995</v>
+      </c>
+      <c r="D32" s="3">
         <v>35.700000000000003</v>
       </c>
     </row>
@@ -3051,10 +2423,13 @@
       <c r="A33">
         <v>1931</v>
       </c>
-      <c r="B33">
-        <v>100</v>
+      <c r="B33" s="5">
+        <v>13.8314</v>
       </c>
       <c r="C33" s="5">
+        <v>53.695654770792771</v>
+      </c>
+      <c r="D33" s="3">
         <v>21.2</v>
       </c>
     </row>
@@ -3062,35 +2437,41 @@
       <c r="A34">
         <v>1932</v>
       </c>
-      <c r="B34">
-        <v>100</v>
+      <c r="B34" s="5">
+        <v>13.783200000000001</v>
       </c>
       <c r="C34" s="5">
+        <v>46.901448409735849</v>
+      </c>
+      <c r="D34" s="3">
         <v>11.1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1933</v>
       </c>
-      <c r="B35">
-        <v>100</v>
+      <c r="B35" s="5">
+        <v>13.6561</v>
       </c>
       <c r="C35" s="5">
+        <v>28.985605494997799</v>
+      </c>
+      <c r="D35" s="3">
         <v>5.7</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1934</v>
       </c>
-      <c r="B36">
-        <v>100</v>
+      <c r="B36" s="5">
+        <v>13.798500000000001</v>
       </c>
       <c r="C36" s="5">
+        <v>49.058115574137673</v>
+      </c>
+      <c r="D36" s="3">
         <v>8.6999999999999993</v>
       </c>
     </row>
@@ -3098,10 +2479,13 @@
       <c r="A37">
         <v>1935</v>
       </c>
-      <c r="B37">
-        <v>100</v>
+      <c r="B37" s="5">
+        <v>13.7608</v>
       </c>
       <c r="C37" s="5">
+        <v>43.743974914140608</v>
+      </c>
+      <c r="D37" s="3">
         <v>36.1</v>
       </c>
     </row>
@@ -3109,10 +2493,13 @@
       <c r="A38">
         <v>1936</v>
       </c>
-      <c r="B38">
-        <v>100</v>
+      <c r="B38" s="5">
+        <v>13.7866</v>
       </c>
       <c r="C38" s="5">
+        <v>47.380707779602744</v>
+      </c>
+      <c r="D38" s="3">
         <v>79.7</v>
       </c>
     </row>
@@ -3120,49 +2507,55 @@
       <c r="A39">
         <v>1937</v>
       </c>
-      <c r="B39">
-        <v>100</v>
+      <c r="B39" s="5">
+        <v>13.8843</v>
       </c>
       <c r="C39" s="5">
+        <v>61.15236673137224</v>
+      </c>
+      <c r="D39" s="3">
         <v>114.4</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1938</v>
       </c>
-      <c r="B40">
-        <v>100</v>
+      <c r="B40" s="5">
+        <v>13.8712</v>
       </c>
       <c r="C40" s="5">
+        <v>59.305808571001762</v>
+      </c>
+      <c r="D40" s="3">
         <v>109.6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1939</v>
       </c>
-      <c r="B41">
-        <v>50</v>
+      <c r="B41" s="5">
+        <v>13.886100000000001</v>
       </c>
       <c r="C41" s="5">
+        <v>61.406092280125449</v>
+      </c>
+      <c r="D41" s="3">
         <v>88.8</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1940</v>
       </c>
-      <c r="B42">
-        <v>50</v>
+      <c r="B42" s="5">
+        <v>13.9947</v>
       </c>
       <c r="C42" s="5">
+        <v>76.714200388233394</v>
+      </c>
+      <c r="D42" s="3">
         <v>67.8</v>
       </c>
     </row>
@@ -3170,35 +2563,41 @@
       <c r="A43">
         <v>1941</v>
       </c>
-      <c r="B43">
-        <v>50</v>
+      <c r="B43" s="5">
+        <v>14.096</v>
       </c>
       <c r="C43" s="5">
+        <v>90.993310437509308</v>
+      </c>
+      <c r="D43" s="3">
         <v>47.5</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1942</v>
       </c>
-      <c r="B44">
-        <v>100</v>
+      <c r="B44" s="5">
+        <v>14.053800000000001</v>
       </c>
       <c r="C44" s="5">
+        <v>85.044855905629447</v>
+      </c>
+      <c r="D44" s="3">
         <v>30.6</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1943</v>
       </c>
-      <c r="B45">
-        <v>100</v>
+      <c r="B45" s="5">
+        <v>14.057</v>
       </c>
       <c r="C45" s="5">
+        <v>85.495923547857274</v>
+      </c>
+      <c r="D45" s="3">
         <v>16.3</v>
       </c>
     </row>
@@ -3206,24 +2605,27 @@
       <c r="A46">
         <v>1944</v>
       </c>
-      <c r="B46">
-        <v>100</v>
+      <c r="B46" s="5">
+        <v>14.1928</v>
       </c>
       <c r="C46" s="5">
+        <v>104.6381066149022</v>
+      </c>
+      <c r="D46" s="3">
         <v>9.6</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1945</v>
       </c>
-      <c r="B47">
-        <v>100</v>
+      <c r="B47" s="5">
+        <v>14.071</v>
       </c>
       <c r="C47" s="5">
+        <v>87.469344482604129</v>
+      </c>
+      <c r="D47" s="3">
         <v>33.200000000000003</v>
       </c>
     </row>
@@ -3231,24 +2633,27 @@
       <c r="A48">
         <v>1946</v>
       </c>
-      <c r="B48">
-        <v>50</v>
+      <c r="B48" s="5">
+        <v>13.896000000000001</v>
       </c>
       <c r="C48" s="5">
+        <v>62.801582798267873</v>
+      </c>
+      <c r="D48" s="3">
         <v>92.6</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1947</v>
       </c>
-      <c r="B49">
-        <v>50</v>
+      <c r="B49" s="5">
+        <v>13.8523</v>
       </c>
       <c r="C49" s="5">
+        <v>56.641690309093519</v>
+      </c>
+      <c r="D49" s="3">
         <v>151.6</v>
       </c>
     </row>
@@ -3256,10 +2661,13 @@
       <c r="A50">
         <v>1948</v>
       </c>
-      <c r="B50">
-        <v>50</v>
+      <c r="B50" s="5">
+        <v>13.8513</v>
       </c>
       <c r="C50" s="5">
+        <v>56.500731670897267</v>
+      </c>
+      <c r="D50" s="3">
         <v>136.30000000000001</v>
       </c>
     </row>
@@ -3267,10 +2675,13 @@
       <c r="A51">
         <v>1949</v>
       </c>
-      <c r="B51">
-        <v>50</v>
+      <c r="B51" s="5">
+        <v>13.8432</v>
       </c>
       <c r="C51" s="5">
+        <v>55.358966701508052</v>
+      </c>
+      <c r="D51" s="3">
         <v>134.69999999999999</v>
       </c>
     </row>
@@ -3278,10 +2689,13 @@
       <c r="A52">
         <v>1950</v>
       </c>
-      <c r="B52">
-        <v>50</v>
+      <c r="B52" s="5">
+        <v>13.7384</v>
       </c>
       <c r="C52" s="5">
+        <v>40.586501418545595</v>
+      </c>
+      <c r="D52" s="3">
         <v>83.9</v>
       </c>
     </row>
@@ -3289,10 +2703,13 @@
       <c r="A53">
         <v>1951</v>
       </c>
-      <c r="B53">
-        <v>50</v>
+      <c r="B53" s="5">
+        <v>13.886799999999999</v>
       </c>
       <c r="C53" s="5">
+        <v>61.50476332686253</v>
+      </c>
+      <c r="D53" s="3">
         <v>69.400000000000006</v>
       </c>
     </row>
@@ -3300,10 +2717,13 @@
       <c r="A54">
         <v>1952</v>
       </c>
-      <c r="B54">
-        <v>50</v>
+      <c r="B54" s="5">
+        <v>13.924799999999999</v>
       </c>
       <c r="C54" s="5">
+        <v>66.86119157831854</v>
+      </c>
+      <c r="D54" s="3">
         <v>31.5</v>
       </c>
     </row>
@@ -3311,10 +2731,13 @@
       <c r="A55">
         <v>1953</v>
       </c>
-      <c r="B55">
-        <v>50</v>
+      <c r="B55" s="5">
+        <v>13.995200000000001</v>
       </c>
       <c r="C55" s="5">
+        <v>76.784679707331634</v>
+      </c>
+      <c r="D55" s="3">
         <v>13.9</v>
       </c>
     </row>
@@ -3322,24 +2745,27 @@
       <c r="A56">
         <v>1954</v>
       </c>
-      <c r="B56">
-        <v>100</v>
+      <c r="B56" s="5">
+        <v>13.7835</v>
       </c>
       <c r="C56" s="5">
+        <v>46.943736001194566</v>
+      </c>
+      <c r="D56" s="3">
         <v>4.4000000000000004</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1955</v>
       </c>
-      <c r="B57">
-        <v>100</v>
+      <c r="B57" s="5">
+        <v>13.7646</v>
       </c>
       <c r="C57" s="5">
+        <v>44.279617739286095</v>
+      </c>
+      <c r="D57" s="3">
         <v>38</v>
       </c>
     </row>
@@ -3347,10 +2773,13 @@
       <c r="A58">
         <v>1956</v>
       </c>
-      <c r="B58">
-        <v>100</v>
+      <c r="B58" s="5">
+        <v>13.701000000000001</v>
       </c>
       <c r="C58" s="5">
+        <v>35.314648350007474</v>
+      </c>
+      <c r="D58" s="3">
         <v>141.69999999999999</v>
       </c>
     </row>
@@ -3358,10 +2787,13 @@
       <c r="A59">
         <v>1957</v>
       </c>
-      <c r="B59">
-        <v>100</v>
+      <c r="B59" s="5">
+        <v>13.9488</v>
       </c>
       <c r="C59" s="5">
+        <v>70.244198895027694</v>
+      </c>
+      <c r="D59" s="3">
         <v>190.2</v>
       </c>
     </row>
@@ -3369,10 +2801,13 @@
       <c r="A60">
         <v>1958</v>
       </c>
-      <c r="B60">
-        <v>100</v>
+      <c r="B60" s="5">
+        <v>14.009499999999999</v>
       </c>
       <c r="C60" s="5">
+        <v>78.800388233537205</v>
+      </c>
+      <c r="D60" s="3">
         <v>184.8</v>
       </c>
     </row>
@@ -3380,10 +2815,13 @@
       <c r="A61">
         <v>1959</v>
       </c>
-      <c r="B61">
-        <v>100</v>
+      <c r="B61" s="5">
+        <v>13.9596</v>
       </c>
       <c r="C61" s="5">
+        <v>71.766552187546495</v>
+      </c>
+      <c r="D61" s="3">
         <v>159</v>
       </c>
     </row>
@@ -3391,10 +2829,13 @@
       <c r="A62">
         <v>1960</v>
       </c>
-      <c r="B62">
-        <v>100</v>
+      <c r="B62" s="5">
+        <v>13.920400000000001</v>
       </c>
       <c r="C62" s="5">
+        <v>66.240973570255392</v>
+      </c>
+      <c r="D62" s="3">
         <v>112.3</v>
       </c>
     </row>
@@ -3402,10 +2843,13 @@
       <c r="A63">
         <v>1961</v>
       </c>
-      <c r="B63">
-        <v>100</v>
+      <c r="B63" s="5">
+        <v>13.977499999999999</v>
       </c>
       <c r="C63" s="5">
+        <v>74.289711811258485</v>
+      </c>
+      <c r="D63" s="3">
         <v>53.9</v>
       </c>
     </row>
@@ -3413,24 +2857,27 @@
       <c r="A64">
         <v>1962</v>
       </c>
-      <c r="B64">
-        <v>50</v>
+      <c r="B64" s="5">
+        <v>13.988799999999999</v>
       </c>
       <c r="C64" s="5">
+        <v>75.882544422875753</v>
+      </c>
+      <c r="D64" s="3">
         <v>37.6</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1963</v>
       </c>
-      <c r="B65">
-        <v>50</v>
+      <c r="B65" s="5">
+        <v>14.0068</v>
       </c>
       <c r="C65" s="5">
+        <v>78.419799910407619</v>
+      </c>
+      <c r="D65" s="3">
         <v>27.9</v>
       </c>
     </row>
@@ -3438,10 +2885,13 @@
       <c r="A66">
         <v>1964</v>
       </c>
-      <c r="B66">
-        <v>50</v>
+      <c r="B66" s="5">
+        <v>13.750500000000001</v>
       </c>
       <c r="C66" s="5">
+        <v>42.29210094071982</v>
+      </c>
+      <c r="D66" s="3">
         <v>10.199999999999999</v>
       </c>
     </row>
@@ -3449,10 +2899,13 @@
       <c r="A67">
         <v>1965</v>
       </c>
-      <c r="B67">
-        <v>50</v>
+      <c r="B67" s="5">
+        <v>13.821999999999999</v>
       </c>
       <c r="C67" s="5">
+        <v>52.37064357174836</v>
+      </c>
+      <c r="D67" s="3">
         <v>15.1</v>
       </c>
     </row>
@@ -3460,10 +2913,13 @@
       <c r="A68">
         <v>1966</v>
       </c>
-      <c r="B68">
-        <v>50</v>
+      <c r="B68" s="5">
+        <v>13.8773</v>
       </c>
       <c r="C68" s="5">
+        <v>60.165656263998699</v>
+      </c>
+      <c r="D68" s="3">
         <v>47</v>
       </c>
     </row>
@@ -3471,24 +2927,27 @@
       <c r="A69">
         <v>1967</v>
       </c>
-      <c r="B69">
-        <v>100</v>
+      <c r="B69" s="5">
+        <v>13.886900000000001</v>
       </c>
       <c r="C69" s="5">
+        <v>61.518859190682406</v>
+      </c>
+      <c r="D69" s="3">
         <v>93.8</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1968</v>
       </c>
-      <c r="B70">
-        <v>100</v>
+      <c r="B70" s="5">
+        <v>13.8704</v>
       </c>
       <c r="C70" s="5">
+        <v>59.193041660444806</v>
+      </c>
+      <c r="D70" s="3">
         <v>105.9</v>
       </c>
     </row>
@@ -3496,10 +2955,13 @@
       <c r="A71">
         <v>1969</v>
       </c>
-      <c r="B71">
-        <v>100</v>
+      <c r="B71" s="5">
+        <v>13.992900000000001</v>
       </c>
       <c r="C71" s="5">
+        <v>76.460474839480412</v>
+      </c>
+      <c r="D71" s="3">
         <v>105.5</v>
       </c>
     </row>
@@ -3507,10 +2969,13 @@
       <c r="A72">
         <v>1970</v>
       </c>
-      <c r="B72">
-        <v>100</v>
+      <c r="B72" s="5">
+        <v>13.937200000000001</v>
       </c>
       <c r="C72" s="5">
+        <v>68.609078691951709</v>
+      </c>
+      <c r="D72" s="3">
         <v>104.5</v>
       </c>
     </row>
@@ -3518,10 +2983,13 @@
       <c r="A73">
         <v>1971</v>
       </c>
-      <c r="B73">
-        <v>100</v>
+      <c r="B73" s="5">
+        <v>13.8217</v>
       </c>
       <c r="C73" s="5">
+        <v>52.328355980289643</v>
+      </c>
+      <c r="D73" s="3">
         <v>66.599999999999994</v>
       </c>
     </row>
@@ -3529,10 +2997,13 @@
       <c r="A74">
         <v>1972</v>
       </c>
-      <c r="B74">
-        <v>100</v>
+      <c r="B74" s="5">
+        <v>13.926399999999999</v>
       </c>
       <c r="C74" s="5">
+        <v>67.086725399432453</v>
+      </c>
+      <c r="D74" s="3">
         <v>68.900000000000006</v>
       </c>
     </row>
@@ -3540,10 +3011,13 @@
       <c r="A75">
         <v>1973</v>
       </c>
-      <c r="B75">
-        <v>100</v>
+      <c r="B75" s="5">
+        <v>14.0641</v>
       </c>
       <c r="C75" s="5">
+        <v>86.496729879050235</v>
+      </c>
+      <c r="D75" s="3">
         <v>38</v>
       </c>
     </row>
@@ -3551,10 +3025,13 @@
       <c r="A76">
         <v>1974</v>
       </c>
-      <c r="B76">
-        <v>100</v>
+      <c r="B76" s="5">
+        <v>13.828099999999999</v>
       </c>
       <c r="C76" s="5">
+        <v>53.230491264745297</v>
+      </c>
+      <c r="D76" s="3">
         <v>34.5</v>
       </c>
     </row>
@@ -3562,10 +3039,13 @@
       <c r="A77">
         <v>1975</v>
       </c>
-      <c r="B77">
-        <v>100</v>
+      <c r="B77" s="5">
+        <v>13.9034</v>
       </c>
       <c r="C77" s="5">
+        <v>63.844676720919779</v>
+      </c>
+      <c r="D77" s="3">
         <v>15.5</v>
       </c>
     </row>
@@ -3573,10 +3053,13 @@
       <c r="A78">
         <v>1976</v>
       </c>
-      <c r="B78">
-        <v>100</v>
+      <c r="B78" s="5">
+        <v>13.8208</v>
       </c>
       <c r="C78" s="5">
+        <v>52.201493205913039</v>
+      </c>
+      <c r="D78" s="3">
         <v>12.6</v>
       </c>
     </row>
@@ -3584,10 +3067,13 @@
       <c r="A79">
         <v>1977</v>
       </c>
-      <c r="B79">
-        <v>100</v>
+      <c r="B79" s="5">
+        <v>14.097799999999999</v>
       </c>
       <c r="C79" s="5">
+        <v>91.24703598626229</v>
+      </c>
+      <c r="D79" s="3">
         <v>27.5</v>
       </c>
     </row>
@@ -3595,10 +3081,13 @@
       <c r="A80">
         <v>1978</v>
       </c>
-      <c r="B80">
-        <v>100</v>
+      <c r="B80" s="5">
+        <v>14.0123</v>
       </c>
       <c r="C80" s="5">
+        <v>79.195072420486667</v>
+      </c>
+      <c r="D80" s="3">
         <v>92.5</v>
       </c>
     </row>
@@ -3606,24 +3095,27 @@
       <c r="A81">
         <v>1979</v>
       </c>
-      <c r="B81">
-        <v>50</v>
+      <c r="B81" s="5">
+        <v>14.1273</v>
       </c>
       <c r="C81" s="5">
+        <v>95.405315813050493</v>
+      </c>
+      <c r="D81" s="3">
         <v>155.4</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1980</v>
       </c>
-      <c r="B82">
-        <v>50</v>
+      <c r="B82" s="5">
+        <v>14.1637</v>
       </c>
       <c r="C82" s="5">
+        <v>100.53621024339259</v>
+      </c>
+      <c r="D82" s="3">
         <v>154.6</v>
       </c>
     </row>
@@ -3631,10 +3123,13 @@
       <c r="A83">
         <v>1981</v>
       </c>
-      <c r="B83">
-        <v>50</v>
+      <c r="B83" s="5">
+        <v>14.1999</v>
       </c>
       <c r="C83" s="5">
+        <v>105.63891294609516</v>
+      </c>
+      <c r="D83" s="3">
         <v>140.4</v>
       </c>
     </row>
@@ -3642,10 +3137,13 @@
       <c r="A84">
         <v>1982</v>
       </c>
-      <c r="B84">
-        <v>50</v>
+      <c r="B84" s="5">
+        <v>14.0815</v>
       </c>
       <c r="C84" s="5">
+        <v>88.949410183664213</v>
+      </c>
+      <c r="D84" s="3">
         <v>115.9</v>
       </c>
     </row>
@@ -3653,10 +3151,13 @@
       <c r="A85">
         <v>1983</v>
       </c>
-      <c r="B85">
-        <v>50</v>
+      <c r="B85" s="5">
+        <v>14.241099999999999</v>
       </c>
       <c r="C85" s="5">
+        <v>111.44640883977877</v>
+      </c>
+      <c r="D85" s="3">
         <v>66.599999999999994</v>
       </c>
     </row>
@@ -3664,10 +3165,13 @@
       <c r="A86">
         <v>1984</v>
       </c>
-      <c r="B86">
-        <v>50</v>
+      <c r="B86" s="5">
+        <v>14.048999999999999</v>
       </c>
       <c r="C86" s="5">
+        <v>84.36825444228748</v>
+      </c>
+      <c r="D86" s="3">
         <v>45.9</v>
       </c>
     </row>
@@ -3675,10 +3179,13 @@
       <c r="A87">
         <v>1985</v>
       </c>
-      <c r="B87">
-        <v>50</v>
+      <c r="B87" s="5">
+        <v>14.0342</v>
       </c>
       <c r="C87" s="5">
+        <v>82.282066596983668</v>
+      </c>
+      <c r="D87" s="3">
         <v>17.899999999999999</v>
       </c>
     </row>
@@ -3686,24 +3193,27 @@
       <c r="A88">
         <v>1986</v>
       </c>
-      <c r="B88">
-        <v>100</v>
+      <c r="B88" s="5">
+        <v>14.1296</v>
       </c>
       <c r="C88" s="5">
+        <v>95.729520680901942</v>
+      </c>
+      <c r="D88" s="3">
         <v>13.4</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1987</v>
       </c>
-      <c r="B89">
-        <v>100</v>
+      <c r="B89" s="5">
+        <v>14.269600000000001</v>
       </c>
       <c r="C89" s="5">
+        <v>115.46373002837095</v>
+      </c>
+      <c r="D89" s="3">
         <v>29.4</v>
       </c>
     </row>
@@ -3711,10 +3221,13 @@
       <c r="A90">
         <v>1988</v>
       </c>
-      <c r="B90">
-        <v>100</v>
+      <c r="B90" s="5">
+        <v>14.275700000000001</v>
       </c>
       <c r="C90" s="5">
+        <v>116.32357772136788</v>
+      </c>
+      <c r="D90" s="3">
         <v>100.2</v>
       </c>
     </row>
@@ -3722,10 +3235,13 @@
       <c r="A91">
         <v>1989</v>
       </c>
-      <c r="B91">
-        <v>100</v>
+      <c r="B91" s="5">
+        <v>14.196999999999999</v>
       </c>
       <c r="C91" s="5">
+        <v>105.23013289532605</v>
+      </c>
+      <c r="D91" s="3">
         <v>157.6</v>
       </c>
     </row>
@@ -3733,10 +3249,13 @@
       <c r="A92">
         <v>1990</v>
       </c>
-      <c r="B92">
-        <v>100</v>
+      <c r="B92" s="5">
+        <v>14.332800000000001</v>
       </c>
       <c r="C92" s="5">
+        <v>124.3723159623712</v>
+      </c>
+      <c r="D92" s="3">
         <v>142.6</v>
       </c>
     </row>
@@ -3744,10 +3263,13 @@
       <c r="A93">
         <v>1991</v>
       </c>
-      <c r="B93">
-        <v>100</v>
+      <c r="B93" s="5">
+        <v>14.3055</v>
       </c>
       <c r="C93" s="5">
+        <v>120.5241451396148</v>
+      </c>
+      <c r="D93" s="3">
         <v>145.69999999999999</v>
       </c>
     </row>
@@ -3755,10 +3277,13 @@
       <c r="A94">
         <v>1992</v>
       </c>
-      <c r="B94">
-        <v>100</v>
+      <c r="B94" s="5">
+        <v>14.1571</v>
       </c>
       <c r="C94" s="5">
+        <v>99.605883231297412</v>
+      </c>
+      <c r="D94" s="3">
         <v>94.3</v>
       </c>
     </row>
@@ -3766,10 +3291,13 @@
       <c r="A95">
         <v>1993</v>
       </c>
-      <c r="B95">
-        <v>100</v>
+      <c r="B95" s="5">
+        <v>14.1853</v>
       </c>
       <c r="C95" s="5">
+        <v>103.58091682843065</v>
+      </c>
+      <c r="D95" s="3">
         <v>54.6</v>
       </c>
     </row>
@@ -3777,10 +3305,13 @@
       <c r="A96">
         <v>1994</v>
       </c>
-      <c r="B96">
-        <v>100</v>
+      <c r="B96" s="5">
+        <v>14.2409</v>
       </c>
       <c r="C96" s="5">
+        <v>111.4182171121397</v>
+      </c>
+      <c r="D96" s="3">
         <v>29.9</v>
       </c>
     </row>
@@ -3788,10 +3319,13 @@
       <c r="A97">
         <v>1995</v>
       </c>
-      <c r="B97">
-        <v>100</v>
+      <c r="B97" s="5">
+        <v>14.357699999999999</v>
       </c>
       <c r="C97" s="5">
+        <v>127.88218605345673</v>
+      </c>
+      <c r="D97" s="3">
         <v>17.5</v>
       </c>
     </row>
@@ -3799,10 +3333,13 @@
       <c r="A98">
         <v>1996</v>
       </c>
-      <c r="B98">
-        <v>100</v>
+      <c r="B98" s="5">
+        <v>14.222799999999999</v>
       </c>
       <c r="C98" s="5">
+        <v>108.86686576078819</v>
+      </c>
+      <c r="D98" s="3">
         <v>8.6</v>
       </c>
     </row>
@@ -3810,10 +3347,13 @@
       <c r="A99">
         <v>1997</v>
       </c>
-      <c r="B99">
-        <v>100</v>
+      <c r="B99" s="5">
+        <v>14.418699999999999</v>
       </c>
       <c r="C99" s="5">
+        <v>136.48066298342519</v>
+      </c>
+      <c r="D99" s="3">
         <v>21.5</v>
       </c>
     </row>
@@ -3821,10 +3361,13 @@
       <c r="A100">
         <v>1998</v>
       </c>
-      <c r="B100">
-        <v>100</v>
+      <c r="B100" s="5">
+        <v>14.5344</v>
       </c>
       <c r="C100" s="5">
+        <v>152.78957742272655</v>
+      </c>
+      <c r="D100" s="3">
         <v>64.3</v>
       </c>
     </row>
@@ -3832,24 +3375,27 @@
       <c r="A101">
         <v>1999</v>
       </c>
-      <c r="B101">
-        <v>50</v>
+      <c r="B101" s="5">
+        <v>14.3438</v>
       </c>
       <c r="C101" s="5">
+        <v>125.92286098252953</v>
+      </c>
+      <c r="D101" s="3">
         <v>93.3</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2000</v>
       </c>
-      <c r="B102">
-        <v>50</v>
+      <c r="B102" s="5">
+        <v>14.3262</v>
       </c>
       <c r="C102" s="5">
+        <v>123.44198895027625</v>
+      </c>
+      <c r="D102" s="3">
         <v>119.6</v>
       </c>
     </row>
@@ -3857,10 +3403,13 @@
       <c r="A103">
         <v>2001</v>
       </c>
-      <c r="B103">
-        <v>50</v>
+      <c r="B103" s="5">
+        <v>14.4473</v>
       </c>
       <c r="C103" s="5">
+        <v>140.51208003583702</v>
+      </c>
+      <c r="D103" s="3">
         <v>111</v>
       </c>
     </row>
@@ -3868,10 +3417,13 @@
       <c r="A104">
         <v>2002</v>
       </c>
-      <c r="B104">
-        <v>50</v>
+      <c r="B104" s="5">
+        <v>14.5023</v>
       </c>
       <c r="C104" s="5">
+        <v>148.26480513662818</v>
+      </c>
+      <c r="D104" s="3">
         <v>104</v>
       </c>
     </row>
@@ -3879,10 +3431,13 @@
       <c r="A105">
         <v>2003</v>
       </c>
-      <c r="B105">
-        <v>100</v>
+      <c r="B105" s="5">
+        <v>14.513400000000001</v>
       </c>
       <c r="C105" s="5">
+        <v>149.82944602060638</v>
+      </c>
+      <c r="D105" s="3">
         <v>63.7</v>
       </c>
     </row>
@@ -3890,10 +3445,13 @@
       <c r="A106">
         <v>2004</v>
       </c>
-      <c r="B106">
-        <v>100</v>
+      <c r="B106" s="5">
+        <v>14.478300000000001</v>
       </c>
       <c r="C106" s="5">
+        <v>144.88179781991948</v>
+      </c>
+      <c r="D106" s="3">
         <v>40.4</v>
       </c>
     </row>
@@ -3901,10 +3459,13 @@
       <c r="A107">
         <v>2005</v>
       </c>
-      <c r="B107">
-        <v>100</v>
+      <c r="B107" s="5">
+        <v>14.5585</v>
       </c>
       <c r="C107" s="5">
+        <v>156.18668060325513</v>
+      </c>
+      <c r="D107" s="3">
         <v>29.8</v>
       </c>
     </row>
@@ -3912,10 +3473,13 @@
       <c r="A108">
         <v>2006</v>
       </c>
-      <c r="B108">
-        <v>100</v>
+      <c r="B108" s="5">
+        <v>14.512499999999999</v>
       </c>
       <c r="C108" s="5">
+        <v>149.70258324622955</v>
+      </c>
+      <c r="D108" s="3">
         <v>15.2</v>
       </c>
     </row>
@@ -3923,10 +3487,13 @@
       <c r="A109">
         <v>2007</v>
       </c>
-      <c r="B109">
-        <v>100</v>
+      <c r="B109" s="5">
+        <v>14.51</v>
       </c>
       <c r="C109" s="5">
+        <v>149.35018665073903</v>
+      </c>
+      <c r="D109" s="3">
         <v>7.5</v>
       </c>
     </row>
@@ -3934,24 +3501,27 @@
       <c r="A110">
         <v>2008</v>
       </c>
-      <c r="B110">
-        <v>50</v>
+      <c r="B110" s="5">
+        <v>14.4419</v>
       </c>
       <c r="C110" s="5">
+        <v>139.75090338957739</v>
+      </c>
+      <c r="D110" s="3">
         <v>2.9</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2009</v>
       </c>
-      <c r="B111">
-        <v>50</v>
+      <c r="B111" s="5">
+        <v>14.5367</v>
       </c>
       <c r="C111" s="5">
+        <v>153.11378229057777</v>
+      </c>
+      <c r="D111" s="3">
         <v>3.1</v>
       </c>
     </row>
@@ -3959,10 +3529,13 @@
       <c r="A112">
         <v>2010</v>
       </c>
-      <c r="B112">
-        <v>50</v>
+      <c r="B112" s="5">
+        <v>14.6014</v>
       </c>
       <c r="C112" s="5">
+        <v>162.23380618187252</v>
+      </c>
+      <c r="D112" s="3">
         <v>16.5</v>
       </c>
     </row>
@@ -3970,10 +3543,13 @@
       <c r="A113">
         <v>2011</v>
       </c>
-      <c r="B113">
-        <v>50</v>
+      <c r="B113" s="5">
+        <v>14.4788</v>
       </c>
       <c r="C113" s="5">
+        <v>144.95227713901727</v>
+      </c>
+      <c r="D113" s="3">
         <v>55.7</v>
       </c>
     </row>
@@ -3981,10 +3557,13 @@
       <c r="A114">
         <v>2012</v>
       </c>
-      <c r="B114">
-        <v>50</v>
+      <c r="B114" s="5">
+        <v>14.523999999999999</v>
       </c>
       <c r="C114" s="5">
+        <v>151.32360758548589</v>
+      </c>
+      <c r="D114" s="3">
         <v>57.7</v>
       </c>
     </row>
@@ -3992,10 +3571,13 @@
       <c r="A115">
         <v>2013</v>
       </c>
-      <c r="B115">
-        <v>50</v>
+      <c r="B115" s="5">
+        <v>14.5679</v>
       </c>
       <c r="C115" s="5">
+        <v>157.51169180229931</v>
+      </c>
+      <c r="D115" s="3">
         <v>64.900000000000006</v>
       </c>
     </row>
@@ -4003,40 +3585,33 @@
       <c r="A116">
         <v>2014</v>
       </c>
-      <c r="B116">
-        <v>50</v>
+      <c r="B116" s="5">
+        <v>14.6408</v>
       </c>
       <c r="C116" s="5">
+        <v>167.78757652680292</v>
+      </c>
+      <c r="D116" s="3">
         <v>79</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2015</v>
       </c>
-      <c r="B117">
-        <v>50</v>
+      <c r="B117" s="5">
+        <v>14.799799999999999</v>
       </c>
       <c r="C117" s="5">
+        <v>190.20000000000005</v>
+      </c>
+      <c r="D117" s="3">
         <v>52.6</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>2016</v>
-      </c>
-      <c r="B118">
-        <v>100</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>